--- a/Lab4CPU设计实验/真值表.xlsx
+++ b/Lab4CPU设计实验/真值表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>SLL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -78,6 +78,38 @@
   </si>
   <si>
     <t>ALUOP[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUOP[3]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OR+XOR+NOR+SLT+SLTU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUOP[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUOP[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUOP[0]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADD+SUB+AND+SLTU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRL+SUB+AND+NOR+SLT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRA+ADD+AND+XOR+SLT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -142,12 +174,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -430,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B7:Q18"/>
+  <dimension ref="B7:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1002,7 +1037,65 @@
         <v>0</v>
       </c>
     </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D26:I26"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Lab4CPU设计实验/真值表.xlsx
+++ b/Lab4CPU设计实验/真值表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3730" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -465,15 +465,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B7:Q26"/>
+  <dimension ref="B7:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,20 +507,20 @@
       <c r="L7" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="M7" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="N7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -554,6 +554,9 @@
       <c r="L8" s="2">
         <v>0</v>
       </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
       <c r="N8" s="2">
         <v>0</v>
       </c>
@@ -563,11 +566,8 @@
       <c r="P8" s="2">
         <v>0</v>
       </c>
-      <c r="Q8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>0</v>
       </c>
@@ -601,6 +601,9 @@
       <c r="L9" s="2">
         <v>0</v>
       </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
       <c r="N9" s="2">
         <v>0</v>
       </c>
@@ -608,13 +611,10 @@
         <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>0</v>
       </c>
@@ -648,20 +648,20 @@
       <c r="L10" s="2">
         <v>0</v>
       </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
       <c r="N10" s="2">
         <v>0</v>
       </c>
       <c r="O10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>0</v>
       </c>
@@ -695,20 +695,20 @@
       <c r="L11" s="2">
         <v>0</v>
       </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>0</v>
       </c>
@@ -742,20 +742,20 @@
       <c r="L12" s="2">
         <v>0</v>
       </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="2">
         <v>1</v>
       </c>
       <c r="P12" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>0</v>
       </c>
@@ -789,8 +789,11 @@
       <c r="L13" s="2">
         <v>0</v>
       </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
       <c r="N13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" s="2">
         <v>1</v>
@@ -798,11 +801,8 @@
       <c r="P13" s="2">
         <v>1</v>
       </c>
-      <c r="Q13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>0</v>
       </c>
@@ -836,8 +836,11 @@
       <c r="L14" s="2">
         <v>0</v>
       </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
       <c r="N14" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="2">
         <v>0</v>
@@ -845,11 +848,8 @@
       <c r="P14" s="2">
         <v>0</v>
       </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>0</v>
       </c>
@@ -883,20 +883,20 @@
       <c r="L15" s="2">
         <v>0</v>
       </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
       <c r="N15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
       </c>
       <c r="P15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>0</v>
       </c>
@@ -930,20 +930,20 @@
       <c r="L16" s="2">
         <v>0</v>
       </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
       <c r="N16" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <v>0</v>
       </c>
@@ -977,20 +977,20 @@
       <c r="L17" s="2">
         <v>0</v>
       </c>
+      <c r="M17" s="2">
+        <v>1</v>
+      </c>
       <c r="N17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" s="2">
         <v>1</v>
       </c>
-      <c r="Q17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <v>0</v>
       </c>
@@ -1024,20 +1024,20 @@
       <c r="L18" s="2">
         <v>1</v>
       </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
       <c r="N18" s="2">
         <v>1</v>
       </c>
       <c r="O18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="2">
         <v>0</v>
       </c>
-      <c r="Q18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -1050,7 +1050,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>17</v>
       </c>
@@ -1063,7 +1063,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>18</v>
       </c>
@@ -1076,7 +1076,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>19</v>
       </c>
